--- a/public/templeate-data-kurikulum.xlsx
+++ b/public/templeate-data-kurikulum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Project Prodi ilmu Komputer\Projectilkom\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072A23B7-6317-4A5F-B85A-04B0388300F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362F2C0E-4CB9-4C2C-8B31-7190CCC5AC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52F398BB-CA30-49A3-8F06-E67F52D758F7}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D9FBC6-A2BD-43CA-B99B-5D3D09CA9DC5}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,13 +463,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
